--- a/Literature review/abstracts_organic lit review 6_25_24.xlsx
+++ b/Literature review/abstracts_organic lit review 6_25_24.xlsx
@@ -5,29 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/Literature review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/Literature review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="638" documentId="8_{234FA339-EA91-4DAB-A084-2436DC2FD7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D3CAAF-4478-4BC8-AC14-332986054DF7}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="8_{234FA339-EA91-4DAB-A084-2436DC2FD7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6774ECC-D6D7-48E8-883D-040016CF5032}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="all abstracts" sheetId="1" r:id="rId1"/>
-    <sheet name="all, sorted by color" sheetId="2" r:id="rId2"/>
-    <sheet name="AMR-virulence" sheetId="3" r:id="rId3"/>
-    <sheet name="table v1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="table v2" sheetId="6" r:id="rId6"/>
-    <sheet name="table v3" sheetId="7" r:id="rId7"/>
-    <sheet name="table v4" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="all abstracts" sheetId="1" r:id="rId2"/>
+    <sheet name="all, sorted by color" sheetId="2" r:id="rId3"/>
+    <sheet name="AMR-virulence" sheetId="3" r:id="rId4"/>
+    <sheet name="table v1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="table v2" sheetId="6" r:id="rId7"/>
+    <sheet name="table v3" sheetId="7" r:id="rId8"/>
+    <sheet name="table v4" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="1541">
   <si>
     <t>PMID</t>
   </si>
@@ -4645,6 +4646,105 @@
   </si>
   <si>
     <t>Selected results</t>
+  </si>
+  <si>
+    <t>Disk diffusion; PCR for blaZ, mecA, mecC, tetK, tetM,  ermA, ermB,  ermC</t>
+  </si>
+  <si>
+    <t>160 CNS, 172 S. aureus; clinical isolates</t>
+  </si>
+  <si>
+    <t>Yang et al., 2023; China</t>
+  </si>
+  <si>
+    <t>Disk diffusion; PCR for mecA, mecC, blaZ</t>
+  </si>
+  <si>
+    <t>244 NAS, 260 S. aureus; not specified</t>
+  </si>
+  <si>
+    <t>Taponen et al., 2023; Finland</t>
+  </si>
+  <si>
+    <t>Disk diffusion; PCR for mecA, mecC</t>
+  </si>
+  <si>
+    <t>227 NAS, 45 S. aureus; combines clinical and subclinical</t>
+  </si>
+  <si>
+    <t>Fergestad et al., 2021; Belgium and Norway</t>
+  </si>
+  <si>
+    <t>Broth microdilution; whole genome sequencing</t>
+  </si>
+  <si>
+    <t>1,702 NAS; combines clinical and subclinical</t>
+  </si>
+  <si>
+    <t>Nobrega et al., 2018; Canada</t>
+  </si>
+  <si>
+    <t>Disk diffusion; PCR for mecA, mecC, vanA</t>
+  </si>
+  <si>
+    <t>62 CNS; clinical isolates</t>
+  </si>
+  <si>
+    <t>Mahato et al., 2017; India</t>
+  </si>
+  <si>
+    <t>Broth microdilution</t>
+  </si>
+  <si>
+    <t>219 CNS; not specified</t>
+  </si>
+  <si>
+    <t>Raspanti et al., 2016; Argentina</t>
+  </si>
+  <si>
+    <t>400 CNS; combines clinical and subclinical</t>
+  </si>
+  <si>
+    <t>Taponen et al., 2016; Finland</t>
+  </si>
+  <si>
+    <t>Broth microdilution; PCR for mecA, mecC</t>
+  </si>
+  <si>
+    <t>408 CNS; compares clinical and subclinical</t>
+  </si>
+  <si>
+    <t>Frey et al., 2013; Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broth microdilution; Cloverleaf B-lactamase test </t>
+  </si>
+  <si>
+    <t>154 CNS; compares clinical and subclinical</t>
+  </si>
+  <si>
+    <t>Persson Waller et al., 2011; Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broth microdilution; PCR for blaZ, mecA, ermA, ermB, ermC, msrA, lnuA, msrA, mphC </t>
+  </si>
+  <si>
+    <t>170 CNS; not specified</t>
+  </si>
+  <si>
+    <t>Sampimon et al., 2009; The Netherlands</t>
+  </si>
+  <si>
+    <t>overall findings</t>
+  </si>
+  <si>
+    <t>methodology</t>
+  </si>
+  <si>
+    <t>number of isolates; clinical or subclinical</t>
+  </si>
+  <si>
+    <t>reference; country</t>
   </si>
 </sst>
 </file>
@@ -4787,7 +4887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4833,10 +4933,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -5160,6 +5256,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E37582-AA0E-4CA9-9B3C-45198A9E5BA5}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY68"/>
   <sheetViews>
@@ -10915,7 +11156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1664E1-932B-4CCC-900F-C77EA5F1310A}">
   <dimension ref="A1:AY68"/>
   <sheetViews>
@@ -16674,7 +16915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E539B84-1D1F-41B3-958B-2544DD7D0A1E}">
   <dimension ref="A1:O21"/>
   <sheetViews>
@@ -17440,7 +17681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7F677F-3B53-43B5-85ED-A86E0B378013}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -18086,7 +18327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E849637-3724-4C76-B2C6-E79C56B6788B}">
   <dimension ref="F1:G1"/>
   <sheetViews>
@@ -18116,7 +18357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B2505B-C26F-4DE2-9BAE-092448465A2C}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -18763,7 +19004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68FE1A-7ED3-41BD-A040-3C94E8E3331B}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -19410,12 +19651,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658D2A3E-3F41-4075-888C-E073C8A7AB86}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19440,25 +19681,25 @@
       <c r="B1" s="10" t="s">
         <v>1429</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>1430</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="11" t="s">
         <v>1442</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1454</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="10" t="s">
         <v>1472</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="10" t="s">
         <v>1482</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="10" t="s">
         <v>1266</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="11" t="s">
         <v>1506</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -19525,7 +19766,7 @@
       <c r="I3" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
